--- a/artfynd/A 58580-2020.xlsx
+++ b/artfynd/A 58580-2020.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88608299</v>
+        <v>88608218</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>78603</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Björkvattsruet, Jmt</t>
+          <t>Kvilåsen, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>440455.1034245967</v>
+        <v>440619.8703747808</v>
       </c>
       <c r="R3" t="n">
-        <v>7162211.825440676</v>
+        <v>7163001.094314476</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -897,17 +897,17 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Via Maria Danvind</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88608218</v>
+        <v>88608217</v>
       </c>
       <c r="B4" t="n">
-        <v>78603</v>
+        <v>78596</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6464</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88608217</v>
+        <v>88608204</v>
       </c>
       <c r="B5" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>440619.8703747808</v>
+        <v>440666.2172450395</v>
       </c>
       <c r="R5" t="n">
-        <v>7163001.094314476</v>
+        <v>7163281.207762145</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88608297</v>
+        <v>88608299</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88608204</v>
+        <v>88608297</v>
       </c>
       <c r="B7" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,34 +1256,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kvilåsen, Jmt</t>
+          <t>Björkvattsruet, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>440666.2172450395</v>
+        <v>440455.1034245967</v>
       </c>
       <c r="R7" t="n">
-        <v>7163281.207762145</v>
+        <v>7162211.825440676</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Via Maria Danvind</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
